--- a/Entregables/Tabla de Tareas/Tabla de tareas.xlsx
+++ b/Entregables/Tabla de Tareas/Tabla de tareas.xlsx
@@ -1380,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N55" sqref="N55"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,9 +1453,8 @@
       <c r="G3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
-        <v xml:space="preserve">1 </v>
+      <c r="H3" s="9">
+        <v>1</v>
       </c>
       <c r="I3" s="10">
         <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
@@ -1483,13 +1482,12 @@
       <c r="G4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
-        <v xml:space="preserve">3 </v>
-      </c>
-      <c r="I4" s="10" t="str">
-        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
-        <v xml:space="preserve">3 </v>
+      <c r="H4" s="9">
+        <v>3</v>
+      </c>
+      <c r="I4" s="10">
+        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
+        <v>3</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>118</v>
@@ -1515,13 +1513,12 @@
       <c r="G5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
-        <v xml:space="preserve">2 </v>
-      </c>
-      <c r="I5" s="10" t="str">
-        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
-        <v xml:space="preserve">2 </v>
+      <c r="H5" s="9">
+        <v>2</v>
+      </c>
+      <c r="I5" s="10">
+        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
+        <v>2</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>118</v>
@@ -1547,13 +1544,12 @@
       <c r="G6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
-        <v xml:space="preserve">2 </v>
-      </c>
-      <c r="I6" s="10" t="str">
-        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
-        <v xml:space="preserve">2 </v>
+      <c r="H6" s="9">
+        <v>2</v>
+      </c>
+      <c r="I6" s="10">
+        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
+        <v>2</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>118</v>
@@ -1577,9 +1573,8 @@
       <c r="G7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
-        <v xml:space="preserve">1 </v>
+      <c r="H7" s="9">
+        <v>1</v>
       </c>
       <c r="I7" s="10">
         <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
@@ -1607,9 +1602,8 @@
       <c r="G8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
-        <v xml:space="preserve">1 </v>
+      <c r="H8" s="9">
+        <v>1</v>
       </c>
       <c r="I8" s="10">
         <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
@@ -1637,9 +1631,8 @@
       <c r="G9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
-        <v xml:space="preserve">1 </v>
+      <c r="H9" s="9">
+        <v>1</v>
       </c>
       <c r="I9" s="10">
         <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
@@ -1669,13 +1662,12 @@
       <c r="G10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
-        <v xml:space="preserve">2 </v>
-      </c>
-      <c r="I10" s="10" t="str">
-        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
-        <v xml:space="preserve">2 </v>
+      <c r="H10" s="9">
+        <v>2</v>
+      </c>
+      <c r="I10" s="10">
+        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
+        <v>2</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>118</v>
@@ -1699,13 +1691,12 @@
       <c r="G11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
-        <v xml:space="preserve">4 </v>
-      </c>
-      <c r="I11" s="10" t="str">
-        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
-        <v xml:space="preserve">4 </v>
+      <c r="H11" s="9">
+        <v>4</v>
+      </c>
+      <c r="I11" s="10">
+        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
+        <v>4</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>118</v>
@@ -1729,13 +1720,12 @@
       <c r="G12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
-        <v xml:space="preserve">3 </v>
-      </c>
-      <c r="I12" s="10" t="str">
-        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
-        <v xml:space="preserve">3 </v>
+      <c r="H12" s="9">
+        <v>3</v>
+      </c>
+      <c r="I12" s="10">
+        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
+        <v>3</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>118</v>
@@ -1757,13 +1747,12 @@
       <c r="G13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
-        <v xml:space="preserve">2 </v>
-      </c>
-      <c r="I13" s="10" t="str">
-        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
-        <v xml:space="preserve">2 </v>
+      <c r="H13" s="9">
+        <v>2</v>
+      </c>
+      <c r="I13" s="10">
+        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
+        <v>2</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>118</v>
@@ -1785,13 +1774,12 @@
       <c r="G14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
-        <v xml:space="preserve">2 </v>
-      </c>
-      <c r="I14" s="10" t="str">
-        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
-        <v xml:space="preserve">2 </v>
+      <c r="H14" s="9">
+        <v>2</v>
+      </c>
+      <c r="I14" s="10">
+        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
+        <v>2</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>118</v>
@@ -1813,13 +1801,12 @@
       <c r="G15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
-        <v xml:space="preserve">2 </v>
-      </c>
-      <c r="I15" s="10" t="str">
-        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
-        <v xml:space="preserve">2 </v>
+      <c r="H15" s="9">
+        <v>2</v>
+      </c>
+      <c r="I15" s="10">
+        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
+        <v>2</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>118</v>
@@ -1841,13 +1828,12 @@
       <c r="G16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
-        <v xml:space="preserve">2 </v>
-      </c>
-      <c r="I16" s="10" t="str">
-        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
-        <v xml:space="preserve">2 </v>
+      <c r="H16" s="9">
+        <v>2</v>
+      </c>
+      <c r="I16" s="10">
+        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
+        <v>2</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>118</v>
@@ -1871,13 +1857,12 @@
       <c r="G17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
-        <v xml:space="preserve">3 </v>
-      </c>
-      <c r="I17" s="10" t="str">
-        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
-        <v xml:space="preserve">3 </v>
+      <c r="H17" s="9">
+        <v>3</v>
+      </c>
+      <c r="I17" s="10">
+        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
+        <v>3</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>118</v>
@@ -1901,13 +1886,12 @@
       <c r="G18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
-        <v xml:space="preserve">2 </v>
-      </c>
-      <c r="I18" s="10" t="str">
-        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
-        <v xml:space="preserve">2 </v>
+      <c r="H18" s="9">
+        <v>2</v>
+      </c>
+      <c r="I18" s="10">
+        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
+        <v>2</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>118</v>
@@ -1929,13 +1913,12 @@
       <c r="G19" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
-        <v xml:space="preserve">2 </v>
-      </c>
-      <c r="I19" s="10" t="str">
-        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
-        <v xml:space="preserve">2 </v>
+      <c r="H19" s="9">
+        <v>2</v>
+      </c>
+      <c r="I19" s="10">
+        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
+        <v>2</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>118</v>
@@ -1957,11 +1940,10 @@
       <c r="G20" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
+      <c r="H20" s="9">
         <v>10</v>
       </c>
-      <c r="I20" s="10" t="str">
+      <c r="I20" s="10">
         <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
         <v>10</v>
       </c>
@@ -1985,11 +1967,10 @@
       <c r="G21" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H21" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
+      <c r="H21" s="9">
         <v>12</v>
       </c>
-      <c r="I21" s="10" t="str">
+      <c r="I21" s="10">
         <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
         <v>12</v>
       </c>
@@ -2015,11 +1996,10 @@
       <c r="G22" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H22" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
+      <c r="H22" s="9">
         <v>16</v>
       </c>
-      <c r="I22" s="10" t="str">
+      <c r="I22" s="10">
         <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
         <v>16</v>
       </c>
@@ -2045,13 +2025,12 @@
       <c r="G23" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
-        <v xml:space="preserve">4 </v>
-      </c>
-      <c r="I23" s="10" t="str">
-        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
-        <v xml:space="preserve">4 </v>
+      <c r="H23" s="9">
+        <v>4</v>
+      </c>
+      <c r="I23" s="10">
+        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
+        <v>4</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>118</v>
@@ -2073,11 +2052,10 @@
       <c r="G24" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H24" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
+      <c r="H24" s="9">
         <v>12</v>
       </c>
-      <c r="I24" s="10" t="str">
+      <c r="I24" s="10">
         <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
         <v>12</v>
       </c>
@@ -2103,13 +2081,12 @@
       <c r="G25" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
-        <v xml:space="preserve">4 </v>
-      </c>
-      <c r="I25" s="10" t="str">
-        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
-        <v xml:space="preserve">4 </v>
+      <c r="H25" s="9">
+        <v>4</v>
+      </c>
+      <c r="I25" s="10">
+        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
+        <v>4</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>118</v>
@@ -2133,13 +2110,12 @@
       <c r="G26" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
-        <v xml:space="preserve">4 </v>
-      </c>
-      <c r="I26" s="10" t="str">
-        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
-        <v xml:space="preserve">4 </v>
+      <c r="H26" s="9">
+        <v>4</v>
+      </c>
+      <c r="I26" s="10">
+        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
+        <v>4</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>118</v>
@@ -2161,11 +2137,10 @@
       <c r="G27" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
+      <c r="H27" s="9">
         <v>10</v>
       </c>
-      <c r="I27" s="10" t="str">
+      <c r="I27" s="10">
         <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
         <v>10</v>
       </c>
@@ -2187,11 +2162,10 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
+      <c r="H28" s="9">
         <v>20</v>
       </c>
-      <c r="I28" s="10" t="str">
+      <c r="I28" s="10">
         <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
         <v>20</v>
       </c>
@@ -2215,13 +2189,12 @@
       <c r="G29" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="H29" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
-        <v xml:space="preserve">8 </v>
-      </c>
-      <c r="I29" s="10" t="str">
-        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
-        <v xml:space="preserve">8 </v>
+      <c r="H29" s="9">
+        <v>8</v>
+      </c>
+      <c r="I29" s="10">
+        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
+        <v>8</v>
       </c>
       <c r="J29" s="9" t="s">
         <v>118</v>
@@ -2243,13 +2216,12 @@
       <c r="G30" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H30" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
-        <v xml:space="preserve">5 </v>
-      </c>
-      <c r="I30" s="10" t="str">
-        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
-        <v xml:space="preserve">5 </v>
+      <c r="H30" s="9">
+        <v>5</v>
+      </c>
+      <c r="I30" s="10">
+        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
+        <v>5</v>
       </c>
       <c r="J30" s="9" t="s">
         <v>118</v>
@@ -2271,13 +2243,12 @@
       <c r="G31" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H31" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
-        <v xml:space="preserve">5 </v>
-      </c>
-      <c r="I31" s="10" t="str">
-        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
-        <v xml:space="preserve">5 </v>
+      <c r="H31" s="9">
+        <v>5</v>
+      </c>
+      <c r="I31" s="10">
+        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
+        <v>5</v>
       </c>
       <c r="J31" s="9" t="s">
         <v>118</v>
@@ -2299,13 +2270,12 @@
       <c r="G32" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H32" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
-        <v xml:space="preserve">2 </v>
-      </c>
-      <c r="I32" s="10" t="str">
-        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
-        <v xml:space="preserve">2 </v>
+      <c r="H32" s="9">
+        <v>2</v>
+      </c>
+      <c r="I32" s="10">
+        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
+        <v>2</v>
       </c>
       <c r="J32" s="9" t="s">
         <v>118</v>
@@ -2327,13 +2297,12 @@
       <c r="G33" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H33" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
-        <v xml:space="preserve">6 </v>
-      </c>
-      <c r="I33" s="10" t="str">
-        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
-        <v xml:space="preserve">6 </v>
+      <c r="H33" s="9">
+        <v>6</v>
+      </c>
+      <c r="I33" s="10">
+        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
+        <v>6</v>
       </c>
       <c r="J33" s="9" t="s">
         <v>118</v>
@@ -2441,11 +2410,10 @@
       <c r="G37" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H37" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
+      <c r="H37" s="9">
         <v>80</v>
       </c>
-      <c r="I37" s="10" t="str">
+      <c r="I37" s="10">
         <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
         <v>80</v>
       </c>
@@ -2471,13 +2439,12 @@
       <c r="G38" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H38" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
-        <v>12</v>
-      </c>
-      <c r="I38" s="10" t="str">
-        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
-        <v>12</v>
+      <c r="H38" s="9">
+        <v>120</v>
+      </c>
+      <c r="I38" s="10">
+        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
+        <v>120</v>
       </c>
       <c r="J38" s="9" t="s">
         <v>118</v>
@@ -2559,13 +2526,12 @@
       <c r="G41" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="H41" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
-        <v>14</v>
-      </c>
-      <c r="I41" s="10" t="str">
-        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
-        <v>14</v>
+      <c r="H41" s="9">
+        <v>140</v>
+      </c>
+      <c r="I41" s="10">
+        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
+        <v>140</v>
       </c>
       <c r="J41" s="9" t="s">
         <v>118</v>
@@ -2585,11 +2551,10 @@
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
-      <c r="H42" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
+      <c r="H42" s="9">
         <v>20</v>
       </c>
-      <c r="I42" s="10" t="str">
+      <c r="I42" s="10">
         <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
         <v>20</v>
       </c>
@@ -2641,13 +2606,12 @@
       <c r="G44" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H44" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
-        <v>14</v>
-      </c>
-      <c r="I44" s="10" t="str">
-        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
-        <v>14</v>
+      <c r="H44" s="9">
+        <v>140</v>
+      </c>
+      <c r="I44" s="10">
+        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
+        <v>140</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>118</v>
@@ -2671,11 +2635,10 @@
       <c r="G45" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H45" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
+      <c r="H45" s="9">
         <v>20</v>
       </c>
-      <c r="I45" s="10" t="str">
+      <c r="I45" s="10">
         <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
         <v>20</v>
       </c>
@@ -2727,13 +2690,12 @@
       <c r="G47" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H47" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
-        <v xml:space="preserve">4 </v>
-      </c>
-      <c r="I47" s="10" t="str">
-        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
-        <v xml:space="preserve">4 </v>
+      <c r="H47" s="9">
+        <v>4</v>
+      </c>
+      <c r="I47" s="10">
+        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
+        <v>4</v>
       </c>
       <c r="J47" s="5" t="s">
         <v>118</v>
@@ -2783,13 +2745,12 @@
       <c r="G49" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H49" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
-        <v xml:space="preserve">4 </v>
-      </c>
-      <c r="I49" s="10" t="str">
-        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
-        <v xml:space="preserve">4 </v>
+      <c r="H49" s="9">
+        <v>4</v>
+      </c>
+      <c r="I49" s="10">
+        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
+        <v>4</v>
       </c>
       <c r="J49" s="5" t="s">
         <v>118</v>
@@ -2833,11 +2794,10 @@
       <c r="G51" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H51" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
+      <c r="H51" s="9">
         <v>30</v>
       </c>
-      <c r="I51" s="10" t="str">
+      <c r="I51" s="10">
         <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
         <v>30</v>
       </c>
@@ -2931,13 +2891,12 @@
       <c r="G55" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H55" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
-        <v xml:space="preserve">4 </v>
-      </c>
-      <c r="I55" s="10" t="str">
-        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
-        <v xml:space="preserve">4 </v>
+      <c r="H55" s="9">
+        <v>4</v>
+      </c>
+      <c r="I55" s="10">
+        <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
+        <v>4</v>
       </c>
       <c r="J55" s="5" t="s">
         <v>118</v>
@@ -3045,11 +3004,10 @@
       <c r="G59" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H59" s="9" t="str">
-        <f>+LEFT(Tabla1[[#This Row],[Esfuerzo estimado]],2)</f>
+      <c r="H59" s="9">
         <v>16</v>
       </c>
-      <c r="I59" s="10" t="str">
+      <c r="I59" s="10">
         <f>+IF(Tabla1[[#This Row],[UnicaVez]]="NO",Tabla1[[#This Row],[Horas]]*$D$1,Tabla1[[#This Row],[Horas]])</f>
         <v>16</v>
       </c>
@@ -3073,7 +3031,7 @@
       </c>
       <c r="I60" s="13">
         <f>+SUM(I3:I59)</f>
-        <v>688</v>
+        <v>1415</v>
       </c>
       <c r="J60" s="15"/>
     </row>
